--- a/logindata.xlsx
+++ b/logindata.xlsx
@@ -20,21 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu1@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu2@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -44,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,13 +56,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,12 +100,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -142,16 +122,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="21.7244897959184" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.17857142857143" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,19 +142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu1@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu2@mailinator.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/logindata.xlsx
+++ b/logindata.xlsx
@@ -20,12 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser9@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser10@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser11@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser12@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -122,16 +137,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -140,6 +156,38 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
